--- a/Analisis/Tablas_internas/tablas_internas.xlsx
+++ b/Analisis/Tablas_internas/tablas_internas.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="161" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1050BCE4-2301-45E8-960A-643F0F449DBA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tipo_personal" sheetId="1" r:id="rId1"/>
@@ -332,16 +332,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFA7192-2074-4157-A266-76E347AEFB97}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -1083,7 +1083,7 @@
       <c r="B14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       <c r="B15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
@@ -1103,7 +1103,7 @@
       <c r="B16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
@@ -1112,7 +1112,7 @@
       <c r="B17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
@@ -1203,206 +1203,206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71CCE83-1D7A-4410-8109-DCADC34523A1}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
-    <col min="2" max="2" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="15.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>79</v>
       </c>
     </row>

--- a/Analisis/Tablas_internas/tablas_internas.xlsx
+++ b/Analisis/Tablas_internas/tablas_internas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Tablas_internas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1050BCE4-2301-45E8-960A-643F0F449DBA}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84EAA837-7A9A-4590-816B-F16A5536E56D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tipo_personal" sheetId="1" r:id="rId1"/>
@@ -629,11 +629,11 @@
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -669,15 +669,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFA7192-2074-4157-A266-76E347AEFB97}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -713,15 +713,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE21D4E-144C-43F7-A9C5-09CE307B183E}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -777,11 +777,11 @@
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -837,11 +837,11 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -881,11 +881,11 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -921,16 +921,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D3F931-0537-450F-815C-E241E2648125}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="30.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="96" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -1207,11 +1207,11 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="15.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">

--- a/Analisis/Tablas_internas/tablas_internas.xlsx
+++ b/Analisis/Tablas_internas/tablas_internas.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Tablas_internas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84EAA837-7A9A-4590-816B-F16A5536E56D}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D66D3DD-66B5-4A07-928B-6555A87C7C6D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="751" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tipo_personal" sheetId="1" r:id="rId1"/>
+    <sheet name="tipo_persona" sheetId="1" r:id="rId1"/>
     <sheet name="tipo_persona_rel" sheetId="2" r:id="rId2"/>
     <sheet name="operacion_titulo" sheetId="4" r:id="rId3"/>
     <sheet name="operacion_titulo_rel" sheetId="5" r:id="rId4"/>
@@ -49,9 +49,6 @@
     <t>cod_entidad</t>
   </si>
   <si>
-    <t>cod_personal</t>
-  </si>
-  <si>
     <t>Si, deuda positiva</t>
   </si>
   <si>
@@ -281,6 +278,9 @@
   </si>
   <si>
     <t>cod_obligacion</t>
+  </si>
+  <si>
+    <t>cod_persona</t>
   </si>
 </sst>
 </file>
@@ -358,6 +358,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -626,13 +630,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
@@ -670,7 +674,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -685,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -713,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE21D4E-144C-43F7-A9C5-09CE307B183E}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -737,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -745,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -753,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -761,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -774,12 +778,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
@@ -789,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -857,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -865,7 +869,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -893,7 +897,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -921,14 +925,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D3F931-0537-450F-815C-E241E2648125}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="96" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
@@ -938,257 +942,257 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="C14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1214,196 +1218,196 @@
     <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/Tablas_internas/tablas_internas.xlsx
+++ b/Analisis/Tablas_internas/tablas_internas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Tablas_internas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D66D3DD-66B5-4A07-928B-6555A87C7C6D}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86A1DE1D-A66E-4240-B39B-66C9A82D77CB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="751" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13590" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="751" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tipo_persona" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,21 @@
     <sheet name="tabla_banco_126" sheetId="10" r:id="rId7"/>
     <sheet name="tabla_banco_126_rel" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -627,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -640,7 +651,7 @@
     <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,20 +659,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D2" s="1" t="str">
+        <f>"insert into interno.tipo_persona values ('" &amp; A2 &amp; "','" &amp; B2 &amp; "');"</f>
+        <v>insert into interno.tipo_persona values ('1','Personal Natural');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>"insert into interno.tipo_persona values ('" &amp; A3 &amp; "','" &amp; B3 &amp; "');"</f>
+        <v>insert into interno.tipo_persona values ('2','Persona Juridica');</v>
       </c>
     </row>
   </sheetData>
@@ -671,10 +690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFA7192-2074-4157-A266-76E347AEFB97}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -684,7 +703,7 @@
     <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -692,20 +711,28 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D2" s="1" t="str">
+        <f>"insert into interno.tipo_persona_rel values ('" &amp; A2 &amp; "','" &amp; B2 &amp; "');"</f>
+        <v>insert into interno.tipo_persona_rel values ('1','1');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>"insert into interno.tipo_persona_rel values ('" &amp; A3 &amp; "','" &amp; B3 &amp; "');"</f>
+        <v>insert into interno.tipo_persona_rel values ('2','2');</v>
       </c>
     </row>
   </sheetData>
@@ -715,10 +742,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE21D4E-144C-43F7-A9C5-09CE307B183E}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -728,7 +755,7 @@
     <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,36 +763,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D2" s="1" t="str">
+        <f>"insert into interno.operacion_titulo values ('" &amp; A2 &amp; "','" &amp; B2 &amp; "');"</f>
+        <v>insert into interno.operacion_titulo values ('1','Si, deuda positiva');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D3" s="1" t="str">
+        <f>"insert into interno.operacion_titulo values ('" &amp; A3 &amp; "','" &amp; B3 &amp; "');"</f>
+        <v>insert into interno.operacion_titulo values ('2','Si, deuda negativa');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D4" s="1" t="str">
+        <f>"insert into interno.operacion_titulo values ('" &amp; A4 &amp; "','" &amp; B4 &amp; "');"</f>
+        <v>insert into interno.operacion_titulo values ('3','Si, deuda positiva y negativa');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f>"insert into interno.operacion_titulo values ('" &amp; A5 &amp; "','" &amp; B5 &amp; "');"</f>
+        <v>insert into interno.operacion_titulo values ('4','No');</v>
       </c>
     </row>
   </sheetData>
@@ -775,10 +818,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C6CB60-EAA9-4D3A-8E30-15A3D6AD8B7F}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -788,7 +831,7 @@
     <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -796,36 +839,52 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D2" s="1" t="str">
+        <f>"insert into interno.operacion_titulo_rel values ('" &amp; A2 &amp; "','" &amp; B2 &amp; "');"</f>
+        <v>insert into interno.operacion_titulo_rel values ('1','1');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D5" si="0">"insert into interno.operacion_titulo_rel values ('" &amp; A3 &amp; "','" &amp; B3 &amp; "');"</f>
+        <v>insert into interno.operacion_titulo_rel values ('2','2');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.operacion_titulo_rel values ('3','3');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.operacion_titulo_rel values ('4','4');</v>
       </c>
     </row>
   </sheetData>
@@ -835,10 +894,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5B7B1A-57A0-46D5-9B53-67DF1C8A2140}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -848,7 +907,7 @@
     <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,20 +915,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D2" s="1" t="str">
+        <f>"insert into interno.tipo_deudor values ('" &amp; A2 &amp; "','" &amp; B2 &amp; "');"</f>
+        <v>insert into interno.tipo_deudor values ('1','Deudor directo');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>"insert into interno.tipo_deudor values ('" &amp; A3 &amp; "','" &amp; B3 &amp; "');"</f>
+        <v>insert into interno.tipo_deudor values ('2','Deudor indirecto');</v>
       </c>
     </row>
   </sheetData>
@@ -879,10 +946,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9432810-ABCB-4CDB-A0AE-2F6DCF57C9F7}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -892,7 +959,7 @@
     <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -900,20 +967,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D2" s="1" t="str">
+        <f>"insert into interno.tipo_deudor_rel values ('" &amp; A2 &amp; "','" &amp; B2 &amp; "');"</f>
+        <v>insert into interno.tipo_deudor_rel values ('1','1');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f>"insert into interno.tipo_deudor_rel values ('" &amp; A3 &amp; "','" &amp; B3 &amp; "');"</f>
+        <v>insert into interno.tipo_deudor_rel values ('2','2');</v>
       </c>
     </row>
   </sheetData>
@@ -923,10 +998,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D3F931-0537-450F-815C-E241E2648125}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -937,7 +1012,7 @@
     <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -948,7 +1023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -958,8 +1033,12 @@
       <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+      <c r="D2" s="1" t="str">
+        <f>"insert into interno.tabla_banco_126 values ('" &amp; A2 &amp; "','" &amp; B2 &amp; "');"</f>
+        <v>insert into interno.tabla_banco_126 values ('01','Créditos comerciales');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -969,8 +1048,12 @@
       <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D24" si="0">"insert into interno.tabla_banco_126 values ('" &amp; A3 &amp; "','" &amp; B3 &amp; "');"</f>
+        <v>insert into interno.tabla_banco_126 values ('02','Créditos de consumo en cuotas');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -980,8 +1063,12 @@
       <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('03','Créditos para estudios superiores Ley N°20.027');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -991,8 +1078,12 @@
       <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('04','Créditos educacionales con garantía CORFO');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1002,8 +1093,12 @@
       <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('05','Otros créditos para estudios superiores');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1013,8 +1108,12 @@
       <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('06','Créditos para la salud');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>33</v>
       </c>
@@ -1024,8 +1123,12 @@
       <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('07','Créditos provenientes de la utilización de tarjetas de crédito');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
@@ -1035,8 +1138,12 @@
       <c r="C9" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('08','Créditos con líneas de crédito o sobregiros en cuentas corrientes');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -1046,8 +1153,12 @@
       <c r="C10" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.15">
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('09','Otros créditos de consumo');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="72" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -1057,8 +1168,12 @@
       <c r="C11" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('10','Créditos para vivienda');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>45</v>
       </c>
@@ -1068,8 +1183,12 @@
       <c r="C12" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('11','Operaciones financieras');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="36" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
@@ -1079,8 +1198,12 @@
       <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('12','Instrumentos de deuda adquiridos');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="36" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>51</v>
       </c>
@@ -1090,8 +1213,12 @@
       <c r="C14" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('13','Créditos comerciales subrogados por el pago de garantías estatales');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="36" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>53</v>
       </c>
@@ -1099,8 +1226,12 @@
         <v>54</v>
       </c>
       <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('14','Créditos de consumo subrogados por el pago de garantías estatales');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="36" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>55</v>
       </c>
@@ -1108,8 +1239,12 @@
         <v>56</v>
       </c>
       <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('15','Créditos para vivienda subrogados por el pago de garantías estatales');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
@@ -1117,8 +1252,12 @@
         <v>58</v>
       </c>
       <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('16','Otros créditos subrogados por el pago de garantías estatales');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="36" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>60</v>
       </c>
@@ -1128,8 +1267,12 @@
       <c r="C18" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('31','Leasing consumo');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="36" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>63</v>
       </c>
@@ -1139,8 +1282,12 @@
       <c r="C19" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('32','Leasing vivienda');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>66</v>
       </c>
@@ -1150,8 +1297,12 @@
       <c r="C20" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('33','Leasing comercial');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>69</v>
       </c>
@@ -1161,8 +1312,12 @@
       <c r="C21" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('41','Créditos contingentes');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>72</v>
       </c>
@@ -1172,8 +1327,12 @@
       <c r="C22" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.15">
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('42','Cupos de líneas de crédito de libre disposición');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>75</v>
       </c>
@@ -1183,8 +1342,12 @@
       <c r="C23" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('43','Cupos de tarjetas de crédito');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>78</v>
       </c>
@@ -1193,6 +1356,10 @@
       </c>
       <c r="C24" s="4" t="s">
         <v>80</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126 values ('44','Créditos contingentes para estudios superiores');</v>
       </c>
     </row>
   </sheetData>
@@ -1205,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71CCE83-1D7A-4410-8109-DCADC34523A1}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1218,7 +1385,7 @@
     <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -1226,188 +1393,280 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D2" s="1" t="str">
+        <f>"insert into interno.tabla_banco_126_rel values ('" &amp; A2 &amp; "','" &amp; B2 &amp; "');"</f>
+        <v>insert into interno.tabla_banco_126_rel values ('01','01');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D3" s="1" t="str">
+        <f t="shared" ref="D3:D24" si="0">"insert into interno.tabla_banco_126_rel values ('" &amp; A3 &amp; "','" &amp; B3 &amp; "');"</f>
+        <v>insert into interno.tabla_banco_126_rel values ('02','02');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('03','03');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('04','04');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('05','05');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('06','06');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('07','07');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('08','08');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('09','09');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('10','10');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('11','11');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('12','12');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('13','13');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('14','14');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('15','15');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('16','16');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('31','31');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('32','32');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('33','33');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('41','41');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('42','42');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('43','43');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>78</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into interno.tabla_banco_126_rel values ('44','44');</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/Tablas_internas/tablas_internas.xlsx
+++ b/Analisis/Tablas_internas/tablas_internas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Tablas_internas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86A1DE1D-A66E-4240-B39B-66C9A82D77CB}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AA06375-1C42-4012-81C9-7C41DEB9F967}"/>
   <bookViews>
-    <workbookView xWindow="13590" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="751" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="751" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tipo_persona" sheetId="1" r:id="rId1"/>
@@ -312,12 +312,18 @@
       <name val="SimSun"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -332,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -353,6 +359,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,7 +907,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1000,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D3F931-0537-450F-815C-E241E2648125}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1114,10 +1124,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1129,10 +1139,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1374,7 +1384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71CCE83-1D7A-4410-8109-DCADC34523A1}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>

--- a/Analisis/Tablas_internas/tablas_internas.xlsx
+++ b/Analisis/Tablas_internas/tablas_internas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Tablas_internas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AA06375-1C42-4012-81C9-7C41DEB9F967}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDE651E3-DFEB-41EF-8DB5-7DF37EF1EF70}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="751" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="751" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tipo_persona" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="tipo_deudor_rel" sheetId="8" r:id="rId6"/>
     <sheet name="tabla_banco_126" sheetId="10" r:id="rId7"/>
     <sheet name="tabla_banco_126_rel" sheetId="11" r:id="rId8"/>
+    <sheet name="tipo_flujo" sheetId="12" r:id="rId9"/>
+    <sheet name="tipo_flujo_rel" sheetId="13" r:id="rId10"/>
+    <sheet name="calendario_rdc20" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="95">
   <si>
     <t>cod</t>
   </si>
@@ -292,6 +295,42 @@
   </si>
   <si>
     <t>cod_persona</t>
+  </si>
+  <si>
+    <t>Amortización de capital</t>
+  </si>
+  <si>
+    <t>Interés capitalizado</t>
+  </si>
+  <si>
+    <t>Nuevos créditos</t>
+  </si>
+  <si>
+    <t>Venta de cartera</t>
+  </si>
+  <si>
+    <t>Compra de cartera</t>
+  </si>
+  <si>
+    <t>Cesión de crédito del reportante a otra entidad</t>
+  </si>
+  <si>
+    <t>Cesión de crédito adquirido por el reportante</t>
+  </si>
+  <si>
+    <t>Prescripción sentenciada por Tribunal diferentes a un Procedimiento Concursal de Liquidación.</t>
+  </si>
+  <si>
+    <t>Exclusión por obligación reportable que cumple cinco años en morosidad.</t>
+  </si>
+  <si>
+    <t>Liquidación de la obligación por Procedimiento Concursal de Liquidación.</t>
+  </si>
+  <si>
+    <t>cod_flujo</t>
+  </si>
+  <si>
+    <t>Fecha</t>
   </si>
 </sst>
 </file>
@@ -338,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -354,16 +393,17 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,6 +738,137 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23836A2-F5CD-45F9-A4E3-1AFA7F6B7EBF}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F8E2E9-231D-4770-8C7B-DAD4199627D4}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>20251107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFA7192-2074-4157-A266-76E347AEFB97}">
   <dimension ref="A1:D3"/>
@@ -1010,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D3F931-0537-450F-815C-E241E2648125}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:C24"/>
     </sheetView>
   </sheetViews>
@@ -1124,10 +1295,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1139,10 +1310,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1220,7 +1391,7 @@
       <c r="B14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="1" t="str">
@@ -1235,7 +1406,7 @@
       <c r="B15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into interno.tabla_banco_126 values ('14','Créditos de consumo subrogados por el pago de garantías estatales');</v>
@@ -1248,7 +1419,7 @@
       <c r="B16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into interno.tabla_banco_126 values ('15','Créditos para vivienda subrogados por el pago de garantías estatales');</v>
@@ -1261,7 +1432,7 @@
       <c r="B17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="8"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into interno.tabla_banco_126 values ('16','Otros créditos subrogados por el pago de garantías estatales');</v>
@@ -1682,4 +1853,110 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5687387-6147-4C1D-98FC-617052F9D2A6}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="84.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analisis/Tablas_internas/tablas_internas.xlsx
+++ b/Analisis/Tablas_internas/tablas_internas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Tablas_internas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDE651E3-DFEB-41EF-8DB5-7DF37EF1EF70}"/>
+  <xr:revisionPtr revIDLastSave="300" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24EF4FE6-51AD-42FE-A938-743A9410AC30}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="751" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="751" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tipo_persona" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,12 @@
     <sheet name="tipo_flujo" sheetId="12" r:id="rId9"/>
     <sheet name="tipo_flujo_rel" sheetId="13" r:id="rId10"/>
     <sheet name="calendario_rdc20" sheetId="14" r:id="rId11"/>
+    <sheet name="medio_consentimiento" sheetId="15" r:id="rId12"/>
+    <sheet name="medio_consentimiento_rel" sheetId="16" r:id="rId13"/>
+    <sheet name="finalidad_consentimiento" sheetId="17" r:id="rId14"/>
+    <sheet name="finalidad_consentimiento_rel" sheetId="18" r:id="rId15"/>
+    <sheet name="objetivo_consentimiento" sheetId="19" r:id="rId16"/>
+    <sheet name="objetivo_consentimiento_rel" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="107">
   <si>
     <t>cod</t>
   </si>
@@ -331,6 +337,42 @@
   </si>
   <si>
     <t>Fecha</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Electrónico</t>
+  </si>
+  <si>
+    <t>Verbal (registro de audio)</t>
+  </si>
+  <si>
+    <t>Físico (registro con respaldo físico)</t>
+  </si>
+  <si>
+    <t>cod_consentimiento</t>
+  </si>
+  <si>
+    <t>Evaluación de riesgo comercial</t>
+  </si>
+  <si>
+    <t>Evaluación de riesgo crediticio</t>
+  </si>
+  <si>
+    <t>cod_finalidad</t>
+  </si>
+  <si>
+    <t>Créditos de consumo</t>
+  </si>
+  <si>
+    <t>cod_objetivo</t>
   </si>
 </sst>
 </file>
@@ -397,13 +439,13 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +461,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -743,10 +781,14 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
@@ -773,66 +815,66 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -845,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F8E2E9-231D-4770-8C7B-DAD4199627D4}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,6 +904,360 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20251107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88382382-03D4-48F5-B4CC-2F346705CD71}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E154CD25-BF44-457C-89E0-DBC5179632D8}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B95A7C-3EB2-4F1F-85AF-8CF884C886AD}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="49.5546875" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A0CDF1-E562-45A6-83EC-1620D59A2828}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{758060C4-EFDA-45FA-91EC-9C81843C7822}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="9"/>
+    <col min="2" max="2" width="43.88671875" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FEC85B-3021-4E01-AC10-91B0D64950B1}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1391,7 +1787,7 @@
       <c r="B14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="1" t="str">
@@ -1406,7 +1802,7 @@
       <c r="B15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into interno.tabla_banco_126 values ('14','Créditos de consumo subrogados por el pago de garantías estatales');</v>
@@ -1419,7 +1815,7 @@
       <c r="B16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into interno.tabla_banco_126 values ('15','Créditos para vivienda subrogados por el pago de garantías estatales');</v>
@@ -1432,7 +1828,7 @@
       <c r="B17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>insert into interno.tabla_banco_126 values ('16','Otros créditos subrogados por el pago de garantías estatales');</v>
@@ -1860,7 +2256,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1893,66 +2289,66 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>92</v>
       </c>
     </row>

--- a/Analisis/Tablas_internas/tablas_internas.xlsx
+++ b/Analisis/Tablas_internas/tablas_internas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78ec6eafe1d282b6/Felipe/Projects/CMF/finReport/Analisis/Tablas_internas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24EF4FE6-51AD-42FE-A938-743A9410AC30}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="11_F25DC773A252ABDACC104864C11848EE5ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CA29ADE-4DBD-494D-B6E1-414884979060}"/>
   <bookViews>
-    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="751" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15210" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="751" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tipo_persona" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="finalidad_consentimiento_rel" sheetId="18" r:id="rId15"/>
     <sheet name="objetivo_consentimiento" sheetId="19" r:id="rId16"/>
     <sheet name="objetivo_consentimiento_rel" sheetId="20" r:id="rId17"/>
+    <sheet name="feriados" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="108">
   <si>
     <t>cod</t>
   </si>
@@ -373,6 +374,9 @@
   </si>
   <si>
     <t>cod_objetivo</t>
+  </si>
+  <si>
+    <t>fecha</t>
   </si>
 </sst>
 </file>
@@ -461,6 +465,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1060,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A0CDF1-E562-45A6-83EC-1620D59A2828}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
@@ -1258,6 +1266,109 @@
       </c>
       <c r="B8" s="9" t="s">
         <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C365A8C2-2C51-4DA5-91F9-2363DF086C4A}">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>20260101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20260403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20260404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>20260501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>20260521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>20260621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20260629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>20260716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>20260815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>20260918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>20260919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>20261012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>20261031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>20261101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>20261208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>20261225</v>
       </c>
     </row>
   </sheetData>
